--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_2_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_2_33.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42138.99360421346</v>
+        <v>2711959.714564594</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42138.99360421346</v>
+        <v>2711959.714564594</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1417936034.136755</v>
+        <v>55285542.8127894</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12581.43201426903</v>
+        <v>1198899.275996255</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24966.52881753135</v>
+        <v>2363823.038303905</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37351.62562079365</v>
+        <v>3528746.800611556</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51041.3552343383</v>
+        <v>4622654.622494332</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64718.14630414748</v>
+        <v>5717588.166821842</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>78394.93737395665</v>
+        <v>6812521.711149348</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>92071.72844376581</v>
+        <v>7907455.255476852</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>105748.519513575</v>
+        <v>9002388.799804356</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>119425.3105833843</v>
+        <v>10097322.34413186</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>133102.1016531935</v>
+        <v>11192255.88845936</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>146437.6339701865</v>
+        <v>12302030.58487489</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>159449.4624406259</v>
+        <v>13427141.71248571</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>172328.8781680913</v>
+        <v>14559112.92890919</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>187163.1753727325</v>
+        <v>15532720.11009455</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>202014.7615225306</v>
+        <v>16504406.85391445</v>
       </c>
     </row>
   </sheetData>
